--- a/기획서/프로토타입_bgm 기획서_v.01.xlsx
+++ b/기획서/프로토타입_bgm 기획서_v.01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동열\Documents\MiniProjectDocu\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC3BEA-EF82-4B96-98C0-B82F11AC7C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="8460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BGM" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t xml:space="preserve">bgm 요청 목록 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>main</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>메인화면 터치 버튼 bgm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -70,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mainButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">플레이화면 bgm </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>play</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">곰 생성 bgm </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -102,10 +91,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>buyBear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">먹이 bgm </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,10 +103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>food</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 over bgm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -134,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gameOver</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 clear bgm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,10 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gameClear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>일시 정지 버튼 bgm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,10 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>stopButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>피버 이벤트 bgm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>feverEvent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이벤트 창 bgm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -194,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>eventPopup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>곰 사라짐 bgm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -210,10 +171,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>deadBear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sereno(세레노)-맑은 하늘 주의보</t>
   </si>
   <si>
@@ -297,14 +254,102 @@
   </si>
   <si>
     <t>일시 정지 버튼 눌렀을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 완료. 임의 업로드함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레딧화면 bgm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레딧 메뉴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">약올리는 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레딧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시정지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인터치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰죽음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루프 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +398,42 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF030303"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -374,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -621,6 +702,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,19 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
@@ -694,9 +878,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -715,11 +896,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,25 +929,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,82 +1263,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4" style="37" customWidth="1"/>
+    <col min="2" max="2" width="4" style="28" customWidth="1"/>
     <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="B2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="30" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="31" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="32"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="25">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1125,528 +1363,636 @@
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
       <c r="L6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="26">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="15"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
+      <c r="N7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
+      <c r="B8" s="26">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
+      <c r="B9" s="26">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
+      <c r="B10" s="26">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+      <c r="B11" s="26">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
+      <c r="B12" s="26">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
+      <c r="B13" s="26">
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
+      <c r="N13" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
+      <c r="B14" s="26">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
       <c r="L14" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
+      <c r="B15" s="26">
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="6" t="s">
-        <v>41</v>
+      <c r="H15" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
       <c r="L15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="26">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="39">
+        <v>12</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="23"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="33"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="25">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="26">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="26">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="26">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="36">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="26">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="26">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="26">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="26">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="26">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="27">
         <v>11</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
-      <c r="C20" s="28"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="34">
-        <v>1</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="20" t="s">
+      <c r="C32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="35">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
-        <v>3</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="24"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="35">
-        <v>4</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="24"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="35">
-        <v>5</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="35">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="35">
-        <v>7</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="35">
-        <v>8</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="35">
-        <v>9</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="35">
-        <v>10</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="36">
-        <v>11</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="27"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="G26:J27"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:N21"/>

--- a/기획서/프로토타입_bgm 기획서_v.01.xlsx
+++ b/기획서/프로토타입_bgm 기획서_v.01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동열\Documents\MiniProjectDocu\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\GitMiniDocu\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC3BEA-EF82-4B96-98C0-B82F11AC7C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="BGM" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t xml:space="preserve">bgm 요청 목록 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -273,18 +272,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>피버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔딩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임오버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>크레딧화면 bgm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -297,58 +284,86 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>크레딧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>루프 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_MainTitle</t>
+  </si>
+  <si>
+    <t>SE_MainTouch</t>
+  </si>
+  <si>
+    <t>BGM_MainGame</t>
+  </si>
+  <si>
+    <t>SE_Birth</t>
+  </si>
+  <si>
+    <t>SE_Eat</t>
+  </si>
+  <si>
+    <t>BGM_GameOver</t>
+  </si>
+  <si>
+    <t>BGM_GameClear</t>
+  </si>
+  <si>
+    <t>SE_Pause</t>
+  </si>
+  <si>
+    <t>BGM_FeverTime</t>
+  </si>
+  <si>
+    <t>SE_EventWindow</t>
+  </si>
+  <si>
+    <t>SE_BearBye</t>
+  </si>
+  <si>
+    <t>SE_Credit</t>
   </si>
   <si>
     <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>일시정지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인터치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>곰죽음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>루프 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -826,7 +841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,6 +932,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,59 +998,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1263,667 +1287,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4" style="28" customWidth="1"/>
-    <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="3" max="3" width="4" style="28" customWidth="1"/>
+    <col min="7" max="7" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+    </row>
+    <row r="3" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="32" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="51"/>
+      <c r="O5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="53"/>
+      <c r="O6" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="25">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="P6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="26">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="26">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="26">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2" t="s">
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C10" s="26">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2" t="s">
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C11" s="26">
         <v>6</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="25" t="s">
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C12" s="26">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C13" s="26">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C14" s="26">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C15" s="26">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="26">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="N15" s="8"/>
+      <c r="O15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="26"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="26">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
+      <c r="Q15" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C16" s="26">
         <v>11</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6" t="s">
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="35">
         <v>12</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="7" t="s">
+      <c r="D17" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="N17" s="54"/>
+      <c r="O17" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="26"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="26">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="26">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="26">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="26">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="26"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="26">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="26"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="26">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="26"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="26">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="26"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="39">
-        <v>12</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="H18" s="11"/>
+      <c r="Q17" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="24" t="s">
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C19" s="29"/>
+      <c r="D19" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="23"/>
-      <c r="H20" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="D20" s="23"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="D21" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="32" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="25">
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="51"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C22" s="25">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="34" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="31"/>
+      <c r="I22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="33"/>
+      <c r="K22" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="26">
+      <c r="L22" s="33"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C23" s="26">
         <v>2</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="20"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="26">
+      <c r="M23" s="20"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C24" s="26">
         <v>3</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="20"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="19"/>
-    </row>
-    <row r="25" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="26">
+      <c r="M24" s="20"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+    </row>
+    <row r="25" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="26">
         <v>4</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="19"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="26">
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C26" s="26">
         <v>5</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="46" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="18"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
-    </row>
-    <row r="27" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="26">
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+    </row>
+    <row r="27" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="26">
         <v>6</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="26">
+      <c r="N27" s="18"/>
+      <c r="O27" s="19"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="26">
         <v>7</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="26">
+      <c r="N28" s="18"/>
+      <c r="O28" s="19"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="26">
         <v>8</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -1931,18 +1976,18 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="26">
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C30" s="26">
         <v>9</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -1950,18 +1995,18 @@
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
-      <c r="N30" s="19"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="26">
+      <c r="N30" s="18"/>
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C31" s="26">
         <v>10</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
@@ -1969,18 +2014,18 @@
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
-      <c r="N31" s="19"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="27">
+      <c r="N31" s="18"/>
+      <c r="O31" s="19"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C32" s="27">
         <v>11</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -1988,20 +2033,22 @@
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G26:J27"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:N21"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="H26:K27"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>